--- a/SeleniumProjects/src/test/resources/TestData.xlsx
+++ b/SeleniumProjects/src/test/resources/TestData.xlsx
@@ -36,9 +36,6 @@
     <t>ranju2001@gmail.com</t>
   </si>
   <si>
-    <t>Demo Web Shop</t>
-  </si>
-  <si>
     <t>valid</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>assert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo Web </t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
         <v>123456789</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -427,7 +427,7 @@
         <v>12789</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -438,7 +438,7 @@
         <v>123456789</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -449,7 +449,7 @@
         <v>12789</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -457,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -477,7 +477,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -488,7 +488,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
